--- a/Output/projects_berwyn_checked.xlsx
+++ b/Output/projects_berwyn_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaw\Documents\PhD Fall 2021 - Spring 2022\Merriman RA\ptax\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB70190-B083-40EE-8A8C-C83C98AED7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6986A1-F2BD-4657-86A6-529D53993C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{DB9EC823-0A44-4C22-BBBA-4EA52D4DF218}"/>
+    <workbookView xWindow="57480" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{DB9EC823-0A44-4C22-BBBA-4EA52D4DF218}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_berwyn" sheetId="1" r:id="rId1"/>
@@ -3281,7 +3281,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3394,36 +3414,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3505,10 +3495,10 @@
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{1555DE5E-82E6-41B9-B185-49CC6E3D344A}" name="group"/>
-    <tableColumn id="2" xr3:uid="{631FF0E2-2F13-40C5-AC21-ADA50E335C10}" name="pin10" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{70C11F6A-2F6D-47FB-B1E0-661951BF01D7}" name="pin" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{36297AAA-FD23-417B-AD23-CC6B03A49375}" name="keypin" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{439F7D73-C71C-4EE6-B2DD-8CF5101FBE29}" name="alea_added" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{631FF0E2-2F13-40C5-AC21-ADA50E335C10}" name="pin10" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{70C11F6A-2F6D-47FB-B1E0-661951BF01D7}" name="pin" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{36297AAA-FD23-417B-AD23-CC6B03A49375}" name="keypin" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{439F7D73-C71C-4EE6-B2DD-8CF5101FBE29}" name="alea_added" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{1DFD46F6-6026-49C0-B9FA-D7E58896A4BE}" name="year"/>
     <tableColumn id="5" xr3:uid="{38887630-5563-4EDA-91EF-8C2FD0660D5D}" name="longitude"/>
     <tableColumn id="6" xr3:uid="{F7E967A2-169E-45E8-9DC9-8E8736BAF323}" name="latitude"/>
@@ -3846,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28999FA-AE12-4B6F-AA61-0BFADC2CC276}">
   <dimension ref="A1:R960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.8"/>
@@ -3859,15 +3849,16 @@
     <col min="5" max="5" width="7.9296875" customWidth="1"/>
     <col min="7" max="7" width="9.53125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.46484375" customWidth="1"/>
+    <col min="10" max="10" width="29.09765625" customWidth="1"/>
     <col min="11" max="11" width="5.8984375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.46484375" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
     <col min="13" max="13" width="9.796875" customWidth="1"/>
     <col min="14" max="14" width="5.796875" customWidth="1"/>
     <col min="15" max="15" width="6.9296875" customWidth="1"/>
     <col min="16" max="16" width="11.83203125" customWidth="1"/>
     <col min="17" max="17" width="9.53125" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
     <col min="19" max="19" width="7.23046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51857,59 +51848,57 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89 D91 D93 D95">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101:D114">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102 D104 D106 D108 D110 D112 D114">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D450:D1048576 D65:D447 D1:D62">
     <cfRule type="duplicateValues" dxfId="3" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D12">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1 E2:E47 E63:E64 D98:E99 E89:E97 E100:E104 E448:E449 D65:E88 D90 D92 D94 D96:D97 D450:E1048576 D105:E447 D10:D47 D2:D4 D48:E62">
     <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J961:K1048576 I1:J960">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q961:R1048576 P1:Q960">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101:D114">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102 D104 D106 D108 D110 D112 D114">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89 D91 D93 D95">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
